--- a/113 other and unspecified_COVID/REC 113 other and unspecified race 2020Nov22.xlsx
+++ b/113 other and unspecified_COVID/REC 113 other and unspecified race 2020Nov22.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="262" count="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256" count="1015">
   <si>
     <t>2015</t>
   </si>
@@ -38,6 +38,12 @@
     <t>Total</t>
   </si>
   <si>
+    <t>MeasuresLevel</t>
+  </si>
+  <si>
+    <t>Recorded Deaths</t>
+  </si>
+  <si>
     <t>Race Group1</t>
   </si>
   <si>
@@ -53,12 +59,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>MeasuresLevel</t>
-  </si>
-  <si>
-    <t>Recorded Deaths</t>
-  </si>
-  <si>
     <t>Alachua</t>
   </si>
   <si>
@@ -89,19 +89,19 @@
     <t>2</t>
   </si>
   <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>78</t>
+    <t>173</t>
+  </si>
+  <si>
+    <t>79</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>338</t>
+    <t>255</t>
+  </si>
+  <si>
+    <t>345</t>
   </si>
   <si>
     <t>Baker</t>
@@ -116,666 +116,648 @@
     <t>Bay</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Brevard</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>Broward</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>1,628</t>
+  </si>
+  <si>
+    <t>1,792</t>
+  </si>
+  <si>
+    <t>Calhoun</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>Citrus</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Collier</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Miami-Dade</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2,470</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>3,097</t>
+  </si>
+  <si>
+    <t>3,351</t>
+  </si>
+  <si>
+    <t>Desoto</t>
+  </si>
+  <si>
+    <t>Dixie</t>
+  </si>
+  <si>
+    <t>Duval</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>455</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>Escambia</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>397</t>
+  </si>
+  <si>
+    <t>Flagler</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Gadsden</t>
+  </si>
+  <si>
+    <t>Gilchrist</t>
+  </si>
+  <si>
+    <t>Gulf</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Hardee</t>
+  </si>
+  <si>
+    <t>Hendry</t>
+  </si>
+  <si>
+    <t>Hernando</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Highlands</t>
+  </si>
+  <si>
     <t>103</t>
   </si>
   <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Brevard</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>391</t>
-  </si>
-  <si>
-    <t>456</t>
-  </si>
-  <si>
-    <t>Broward</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>972</t>
-  </si>
-  <si>
-    <t>550</t>
+    <t>127</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Hillsborough</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>989</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>Indian River</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Manatee</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>Monroe</t>
+  </si>
+  <si>
+    <t>Nassau</t>
+  </si>
+  <si>
+    <t>Okaloosa</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Okeechobee</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>Osceola</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>Palm Beach</t>
+  </si>
+  <si>
+    <t>1,120</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>1,449</t>
+  </si>
+  <si>
+    <t>1,594</t>
+  </si>
+  <si>
+    <t>Pasco</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Pinellas</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>837</t>
+  </si>
+  <si>
+    <t>Polk</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>Putnam</t>
+  </si>
+  <si>
+    <t>Saint Johns</t>
+  </si>
+  <si>
+    <t>Saint Lucie</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Sarasota</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>Seminole</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Sumter</t>
   </si>
   <si>
     <t>76</t>
   </si>
   <si>
-    <t>1,600</t>
-  </si>
-  <si>
-    <t>1,764</t>
-  </si>
-  <si>
-    <t>Calhoun</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>Citrus</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>Collier</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>Columbia</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Miami-Dade</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>2,449</t>
-  </si>
-  <si>
-    <t>532</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>3,073</t>
-  </si>
-  <si>
-    <t>3,327</t>
-  </si>
-  <si>
-    <t>Desoto</t>
-  </si>
-  <si>
-    <t>Dixie</t>
-  </si>
-  <si>
-    <t>Duval</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>678</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>Escambia</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>389</t>
-  </si>
-  <si>
-    <t>Flagler</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>Gadsden</t>
-  </si>
-  <si>
-    <t>Gilchrist</t>
-  </si>
-  <si>
-    <t>Gulf</t>
-  </si>
-  <si>
-    <t>Hardee</t>
-  </si>
-  <si>
-    <t>Hendry</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Hernando</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>Highlands</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>Hillsborough</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>966</t>
-  </si>
-  <si>
-    <t>Holmes</t>
-  </si>
-  <si>
-    <t>Indian River</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Jefferson</t>
-  </si>
-  <si>
-    <t>Lafayette</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>421</t>
-  </si>
-  <si>
-    <t>48</t>
+    <t>Suwannee</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Volusia</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>Wakulla</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Out of State</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>475</t>
   </si>
   <si>
-    <t>549</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>303</t>
-  </si>
-  <si>
-    <t>Levy</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Manatee</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>Marion</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>319</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>Monroe</t>
-  </si>
-  <si>
-    <t>Nassau</t>
-  </si>
-  <si>
-    <t>Okaloosa</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>Okeechobee</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>682</t>
-  </si>
-  <si>
-    <t>848</t>
-  </si>
-  <si>
-    <t>Osceola</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>Palm Beach</t>
-  </si>
-  <si>
-    <t>1,106</t>
-  </si>
-  <si>
-    <t>293</t>
-  </si>
-  <si>
-    <t>1,431</t>
-  </si>
-  <si>
-    <t>1,576</t>
-  </si>
-  <si>
-    <t>Pasco</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>Pinellas</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>539</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>662</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>Polk</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>Putnam</t>
-  </si>
-  <si>
-    <t>Saint Johns</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Saint Lucie</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Sarasota</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>Seminole</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>Sumter</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Suwannee</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
-    <t>Volusia</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>Wakulla</t>
-  </si>
-  <si>
-    <t>Walton</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>Out of State</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>362</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>369</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>415</t>
   </si>
   <si>
@@ -785,22 +767,22 @@
     <t>493</t>
   </si>
   <si>
-    <t>11,810</t>
-  </si>
-  <si>
-    <t>3,094</t>
-  </si>
-  <si>
-    <t>491</t>
-  </si>
-  <si>
-    <t>15,408</t>
-  </si>
-  <si>
-    <t>17,679</t>
-  </si>
-  <si>
-    <t>Recorded Deaths by Recorded County by Year by Age Groups
+    <t>12,082</t>
+  </si>
+  <si>
+    <t>3,130</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>15,722</t>
+  </si>
+  <si>
+    <t>17,993</t>
+  </si>
+  <si>
+    <t>Recorded Deaths by Recorded County by Year by Race
 _x000d_113 Causes of Death=Other and unspecified infectious and parasitic diseases and their sequelae</t>
   </si>
 </sst>
@@ -1064,7 +1046,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:AB71"/>
+  <dimension ref="A1:AB72"/>
   <sheetViews>
     <sheetView view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1103,7 +1085,7 @@
   <sheetData>
     <row r="1" spans="14:14" ht="409.5">
       <c r="N1" s="27" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2"/>
@@ -1199,168 +1181,168 @@
         <v>8</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA4" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB4" s="18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.65">
       <c r="A5" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X5" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="AA5" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AB5" s="18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="14.65">
@@ -1528,22 +1510,22 @@
         <v>33</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Y8" s="19" t="s">
         <v>30</v>
       </c>
       <c r="Z8" s="19"/>
       <c r="AA8" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB8" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.65">
       <c r="A9" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -1585,18 +1567,18 @@
     </row>
     <row r="10" spans="1:28" ht="14.65">
       <c r="A10" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>21</v>
@@ -1614,7 +1596,7 @@
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O10" s="19" t="s">
         <v>20</v>
@@ -1624,7 +1606,7 @@
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S10" s="19" t="s">
         <v>15</v>
@@ -1635,105 +1617,105 @@
         <v>15</v>
       </c>
       <c r="W10" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="Z10" s="19"/>
       <c r="AA10" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB10" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.65">
       <c r="A11" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="M11" s="19"/>
       <c r="N11" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="U11" s="19"/>
       <c r="V11" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W11" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="14.65">
       <c r="A12" s="18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1775,7 +1757,7 @@
     </row>
     <row r="13" spans="1:28" ht="14.65">
       <c r="A13" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>15</v>
@@ -1810,7 +1792,7 @@
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S13" s="19" t="s">
         <v>30</v>
@@ -1821,25 +1803,25 @@
         <v>30</v>
       </c>
       <c r="W13" s="19" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Y13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="Z13" s="19"/>
       <c r="AA13" s="20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AB13" s="20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="14.65">
       <c r="A14" s="18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>26</v>
@@ -1883,7 +1865,7 @@
         <v>26</v>
       </c>
       <c r="W14" s="19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="X14" s="19" t="s">
         <v>19</v>
@@ -1891,15 +1873,15 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AB14" s="20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14.65">
       <c r="A15" s="18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>26</v>
@@ -1922,7 +1904,7 @@
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>21</v>
@@ -1950,28 +1932,28 @@
       </c>
       <c r="U15" s="19"/>
       <c r="V15" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="W15" s="19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z15" s="19"/>
       <c r="AA15" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AB15" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14.65">
       <c r="A16" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>19</v>
@@ -1982,16 +1964,16 @@
         <v>19</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="19" t="s">
@@ -2001,12 +1983,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S16" s="19" t="s">
         <v>16</v>
@@ -2017,7 +1999,7 @@
         <v>16</v>
       </c>
       <c r="W16" s="19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="X16" s="19" t="s">
         <v>20</v>
@@ -2027,15 +2009,15 @@
       </c>
       <c r="Z16" s="19"/>
       <c r="AA16" s="20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AB16" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="14.65">
       <c r="A17" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>21</v>
@@ -2075,28 +2057,28 @@
         <v>30</v>
       </c>
       <c r="W17" s="19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X17" s="19" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="Y17" s="19" t="s">
         <v>23</v>
       </c>
       <c r="Z17" s="19"/>
       <c r="AA17" s="20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AB17" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:28" ht="14.65">
       <c r="A18" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>15</v>
@@ -2105,10 +2087,10 @@
         <v>19</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>15</v>
@@ -2118,62 +2100,62 @@
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P18" s="19" t="s">
         <v>31</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="R18" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S18" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U18" s="19" t="s">
         <v>21</v>
       </c>
       <c r="V18" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="W18" s="19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Z18" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AA18" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AB18" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:28" ht="14.65">
       <c r="A19" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -2209,7 +2191,7 @@
         <v>21</v>
       </c>
       <c r="W19" s="19" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="X19" s="19" t="s">
         <v>23</v>
@@ -2217,15 +2199,15 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
       <c r="AA19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="AB19" s="20" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="14.65">
       <c r="A20" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -2263,10 +2245,10 @@
     </row>
     <row r="21" spans="1:28" ht="14.65">
       <c r="A21" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>31</v>
@@ -2275,7 +2257,7 @@
         <v>21</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>22</v>
@@ -2286,7 +2268,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>18</v>
@@ -2296,10 +2278,10 @@
       </c>
       <c r="M21" s="19"/>
       <c r="N21" s="20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P21" s="19" t="s">
         <v>19</v>
@@ -2308,10 +2290,10 @@
         <v>21</v>
       </c>
       <c r="R21" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T21" s="19" t="s">
         <v>16</v>
@@ -2320,28 +2302,28 @@
         <v>23</v>
       </c>
       <c r="V21" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="W21" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X21" s="19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Y21" s="19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Z21" s="19"/>
       <c r="AA21" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AB21" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="14.65">
       <c r="A22" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>30</v>
@@ -2351,7 +2333,7 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>16</v>
@@ -2367,15 +2349,15 @@
         <v>15</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P22" s="19" t="s">
         <v>23</v>
@@ -2396,28 +2378,28 @@
         <v>21</v>
       </c>
       <c r="V22" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="W22" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="X22" s="19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y22" s="19" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="Z22" s="19"/>
       <c r="AA22" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AB22" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="14.65">
       <c r="A23" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>21</v>
@@ -2461,7 +2443,7 @@
         <v>23</v>
       </c>
       <c r="W23" s="19" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="X23" s="19" t="s">
         <v>31</v>
@@ -2471,15 +2453,15 @@
       </c>
       <c r="Z23" s="19"/>
       <c r="AA23" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB23" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="AB23" s="20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="14.65">
       <c r="A24" s="18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>21</v>
@@ -2525,7 +2507,7 @@
     </row>
     <row r="25" spans="1:28" ht="14.65">
       <c r="A25" s="18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -2571,7 +2553,7 @@
     </row>
     <row r="26" spans="1:28" ht="14.65">
       <c r="A26" s="18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -2609,7 +2591,7 @@
     </row>
     <row r="27" spans="1:28" ht="14.65">
       <c r="A27" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -2649,7 +2631,7 @@
     </row>
     <row r="28" spans="1:28" ht="14.65">
       <c r="A28" s="18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -2687,7 +2669,7 @@
     </row>
     <row r="29" spans="1:28" ht="14.65">
       <c r="A29" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -2702,96 +2684,72 @@
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="20"/>
-      <c r="O29" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
-      <c r="R29" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="R29" s="20"/>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="20"/>
       <c r="W29" s="19" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
       <c r="AA29" s="20" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AB29" s="20" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="14.65">
       <c r="A30" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>48</v>
-      </c>
+      <c r="J30" s="20"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
-      <c r="N30" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="N30" s="20"/>
       <c r="O30" s="19" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="S30" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="S30" s="19"/>
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="V30" s="20"/>
       <c r="W30" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="X30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Y30" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
       <c r="AA30" s="20" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="AB30" s="20" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="14.65">
       <c r="A31" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>21</v>
@@ -2802,21 +2760,21 @@
         <v>21</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="19"/>
       <c r="N31" s="20" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="O31" s="19" t="s">
         <v>30</v>
@@ -2827,166 +2785,182 @@
         <v>30</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="W31" s="19" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="X31" s="19" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Y31" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z31" s="19"/>
       <c r="AA31" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AB31" s="20" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="14.65">
       <c r="A32" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="20" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="19" t="s">
         <v>26</v>
       </c>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
       <c r="N32" s="20" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="O32" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q32" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
       <c r="R32" s="20" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="S32" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="T32" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
       <c r="V32" s="20" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="W32" s="19" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="X32" s="19" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="Y32" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z32" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Z32" s="19"/>
       <c r="AA32" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AB32" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="14.65">
       <c r="A33" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="S33" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="T33" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="V33" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="W33" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="X33" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y33" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z33" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA33" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="W33" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="AB33" s="20" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="14.65">
       <c r="A34" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>26</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
-      <c r="E34" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="E34" s="20"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
@@ -2996,128 +2970,136 @@
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="20"/>
-      <c r="O34" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P34" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q34" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="20"/>
       <c r="S34" s="19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
       <c r="V34" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="W34" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="X34" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y34" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
       <c r="AA34" s="20" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="AB34" s="20" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="14.65">
       <c r="A35" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B35" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="E35" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="J35" s="20"/>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
       <c r="M35" s="19"/>
       <c r="N35" s="20"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="19"/>
+      <c r="O35" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S35" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
-      <c r="V35" s="20"/>
+      <c r="V35" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="W35" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="X35" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y35" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="Y35" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="Z35" s="19"/>
       <c r="AA35" s="20" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AB35" s="20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="14.65">
       <c r="A36" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="19"/>
+      <c r="F36" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="J36" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="20"/>
-      <c r="O36" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
-      <c r="R36" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="R36" s="20"/>
       <c r="S36" s="19"/>
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
       <c r="V36" s="20"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
+      <c r="W36" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="X36" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
-      <c r="AA36" s="20"/>
+      <c r="AA36" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="AB36" s="20" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="14.65">
       <c r="A37" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -3132,284 +3114,280 @@
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
       <c r="N37" s="20"/>
-      <c r="O37" s="19"/>
+      <c r="O37" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
-      <c r="R37" s="20"/>
+      <c r="R37" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="S37" s="19"/>
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
       <c r="V37" s="20"/>
-      <c r="W37" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="W37" s="19"/>
       <c r="X37" s="19"/>
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
-      <c r="AA37" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="AA37" s="20"/>
       <c r="AB37" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="14.65">
       <c r="A38" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>26</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>26</v>
-      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>40</v>
-      </c>
+      <c r="J38" s="20"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="19"/>
       <c r="M38" s="19"/>
-      <c r="N38" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="O38" s="19" t="s">
+      <c r="N38" s="20"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="P38" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="S38" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="V38" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="W38" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="X38" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y38" s="19" t="s">
-        <v>48</v>
-      </c>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
       <c r="AA38" s="20" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="AB38" s="20" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="14.65">
       <c r="A39" s="18" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="20" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="20" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P39" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Q39" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="Q39" s="19"/>
       <c r="R39" s="20" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S39" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="T39" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="U39" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="V39" s="20" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="W39" s="19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="X39" s="19" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="Y39" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z39" s="19"/>
       <c r="AA39" s="20" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="AB39" s="20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="14.65">
       <c r="A40" s="18" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="20" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L40" s="19" t="s">
         <v>23</v>
       </c>
       <c r="M40" s="19"/>
       <c r="N40" s="20" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="P40" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Q40" s="19"/>
+      <c r="Q40" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="R40" s="20" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="S40" s="19" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="T40" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U40" s="19"/>
       <c r="V40" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W40" s="19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="X40" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="Y40" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z40" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z40" s="19"/>
       <c r="AA40" s="20" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AB40" s="20" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="14.65">
       <c r="A41" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+        <v>154</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="E41" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="J41" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="K41" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="M41" s="19"/>
       <c r="N41" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="Q41" s="19"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
+      <c r="R41" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="U41" s="19"/>
-      <c r="V41" s="20"/>
+      <c r="V41" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="W41" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
+        <v>155</v>
+      </c>
+      <c r="X41" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y41" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z41" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="AA41" s="20" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="AB41" s="20" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="14.65">
       <c r="A42" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -3420,10 +3398,14 @@
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="19"/>
+      <c r="K42" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
-      <c r="N42" s="20"/>
+      <c r="N42" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
       <c r="Q42" s="19"/>
@@ -3433,21 +3415,21 @@
       <c r="U42" s="19"/>
       <c r="V42" s="20"/>
       <c r="W42" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X42" s="19"/>
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
       <c r="AA42" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB42" s="20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="14.65">
       <c r="A43" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -3471,229 +3453,205 @@
       <c r="U43" s="19"/>
       <c r="V43" s="20"/>
       <c r="W43" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="X43" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="X43" s="19"/>
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
       <c r="AA43" s="20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AB43" s="20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="14.65">
       <c r="A44" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>40</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>48</v>
-      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
-      <c r="J44" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="J44" s="20"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
       <c r="M44" s="19"/>
-      <c r="N44" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O44" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P44" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="N44" s="20"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
       <c r="Q44" s="19"/>
-      <c r="R44" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="S44" s="19" t="s">
-        <v>30</v>
-      </c>
+      <c r="R44" s="20"/>
+      <c r="S44" s="19"/>
       <c r="T44" s="19"/>
       <c r="U44" s="19"/>
-      <c r="V44" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="V44" s="20"/>
       <c r="W44" s="19" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="X44" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y44" s="19" t="s">
-        <v>16</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
       <c r="AA44" s="20" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="AB44" s="20" t="s">
-        <v>169</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="14.65">
       <c r="A45" s="18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="M45" s="19"/>
       <c r="N45" s="20" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="O45" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="P45" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="P45" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="Q45" s="19"/>
       <c r="R45" s="20" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="S45" s="19" t="s">
         <v>30</v>
       </c>
       <c r="T45" s="19"/>
-      <c r="U45" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="U45" s="19"/>
       <c r="V45" s="20" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="W45" s="19" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="X45" s="19" t="s">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="Y45" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z45" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="Z45" s="19"/>
       <c r="AA45" s="20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="AB45" s="20" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="14.65">
       <c r="A46" s="18" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D46" s="19"/>
       <c r="E46" s="20" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O46" s="19" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
       <c r="R46" s="20" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="S46" s="19" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
+      <c r="U46" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="V46" s="20" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="W46" s="19" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="X46" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y46" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="Y46" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z46" s="19"/>
+      <c r="Z46" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="AA46" s="20" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AB46" s="20" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="14.65">
       <c r="A47" s="18" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>21</v>
@@ -3705,155 +3663,153 @@
         <v>21</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O47" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="O47" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="19"/>
+      <c r="R47" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S47" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="T47" s="19"/>
       <c r="U47" s="19"/>
-      <c r="V47" s="20"/>
+      <c r="V47" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="W47" s="19" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="X47" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y47" s="19"/>
+        <v>52</v>
+      </c>
+      <c r="Y47" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="Z47" s="19"/>
       <c r="AA47" s="20" t="s">
-        <v>18</v>
+        <v>172</v>
       </c>
       <c r="AB47" s="20" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="14.65">
       <c r="A48" s="18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="19"/>
+      <c r="J48" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="N48" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="19"/>
       <c r="P48" s="19"/>
       <c r="Q48" s="19"/>
-      <c r="R48" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="S48" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="R48" s="20"/>
+      <c r="S48" s="19"/>
       <c r="T48" s="19"/>
       <c r="U48" s="19"/>
-      <c r="V48" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="V48" s="20"/>
       <c r="W48" s="19" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="X48" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
       <c r="AA48" s="20" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="AB48" s="20" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="14.65">
       <c r="A49" s="18" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F49" s="19"/>
       <c r="G49" s="19"/>
-      <c r="H49" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="H49" s="19"/>
       <c r="I49" s="19"/>
-      <c r="J49" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="J49" s="20"/>
       <c r="K49" s="19"/>
-      <c r="L49" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="L49" s="19"/>
       <c r="M49" s="19"/>
-      <c r="N49" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="N49" s="20"/>
       <c r="O49" s="19" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P49" s="19"/>
       <c r="Q49" s="19"/>
       <c r="R49" s="20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="S49" s="19" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="T49" s="19"/>
       <c r="U49" s="19"/>
       <c r="V49" s="20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="W49" s="19" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="X49" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y49" s="19" t="s">
-        <v>40</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
       <c r="AA49" s="20" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="AB49" s="20" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="14.65">
       <c r="A50" s="18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>21</v>
@@ -3864,1224 +3820,1248 @@
         <v>21</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
+      <c r="H50" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="I50" s="19"/>
       <c r="J50" s="20" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="L50" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="19"/>
       <c r="N50" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="19"/>
+      <c r="O50" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="P50" s="19"/>
       <c r="Q50" s="19"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="19"/>
+      <c r="R50" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="T50" s="19"/>
       <c r="U50" s="19"/>
-      <c r="V50" s="20"/>
+      <c r="V50" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="W50" s="19" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="X50" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y50" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="Y50" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="Z50" s="19"/>
       <c r="AA50" s="20" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="AB50" s="20" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:28" ht="14.65">
       <c r="A51" s="18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="20" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L51" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="X51" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M51" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="N51" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="O51" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="S51" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="T51" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="U51" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="V51" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="W51" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="X51" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y51" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z51" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
       <c r="AA51" s="20" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="AB51" s="20" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="14.65">
       <c r="A52" s="18" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="I52" s="19"/>
       <c r="J52" s="20" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="K52" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="L52" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="N52" s="20" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="O52" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="P52" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="Q52" s="19"/>
       <c r="R52" s="20" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="S52" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T52" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="T52" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="U52" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V52" s="20" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="W52" s="19" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="X52" s="19" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="Y52" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z52" s="19"/>
+        <v>87</v>
+      </c>
+      <c r="Z52" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="AA52" s="20" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="AB52" s="20" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="14.65">
       <c r="A53" s="18" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>48</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C53" s="19"/>
       <c r="D53" s="19"/>
       <c r="E53" s="20" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
       <c r="J53" s="20" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="K53" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="L53" s="19"/>
       <c r="M53" s="19"/>
       <c r="N53" s="20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P53" s="19" t="s">
-        <v>30</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="P53" s="19"/>
       <c r="Q53" s="19"/>
       <c r="R53" s="20" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="S53" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="T53" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="U53" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="V53" s="20" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="W53" s="19" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="X53" s="19" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="Y53" s="19" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="Z53" s="19"/>
       <c r="AA53" s="20" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="AB53" s="20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="14.65">
       <c r="A54" s="18" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="19"/>
+        <v>134</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="D54" s="19"/>
       <c r="E54" s="20" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
+        <v>101</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="J54" s="20" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M54" s="19"/>
       <c r="N54" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P54" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="P54" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="Q54" s="19"/>
       <c r="R54" s="20" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="S54" s="19" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="T54" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="U54" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="U54" s="19"/>
       <c r="V54" s="20" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="W54" s="19" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="X54" s="19" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="Y54" s="19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="Z54" s="19"/>
       <c r="AA54" s="20" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AB54" s="20" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:28" ht="14.65">
       <c r="A55" s="18" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="20" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>19</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G55" s="19"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="I55" s="19"/>
       <c r="J55" s="20" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="K55" s="19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M55" s="19"/>
       <c r="N55" s="20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O55" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P55" s="19" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="P55" s="19"/>
       <c r="Q55" s="19"/>
       <c r="R55" s="20" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="S55" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="T55" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="T55" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="U55" s="19" t="s">
         <v>21</v>
       </c>
       <c r="V55" s="20" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="W55" s="19" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="X55" s="19" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="Y55" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z55" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="Z55" s="19"/>
       <c r="AA55" s="20" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="AB55" s="20" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="14.65">
       <c r="A56" s="18" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D56" s="19"/>
       <c r="E56" s="20" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="J56" s="20" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="K56" s="19" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="L56" s="19" t="s">
         <v>23</v>
       </c>
       <c r="M56" s="19"/>
       <c r="N56" s="20" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="O56" s="19" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="P56" s="19" t="s">
         <v>19</v>
       </c>
       <c r="Q56" s="19"/>
       <c r="R56" s="20" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="S56" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="T56" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="U56" s="19"/>
+        <v>197</v>
+      </c>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="V56" s="20" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="W56" s="19" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="X56" s="19" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="Y56" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z56" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="Z56" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="AA56" s="20" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AB56" s="20" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="14.65">
       <c r="A57" s="18" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="19"/>
       <c r="E57" s="20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="I57" s="19"/>
       <c r="J57" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="M57" s="19"/>
-      <c r="N57" s="20"/>
+      <c r="N57" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="O57" s="19" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="P57" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q57" s="19"/>
       <c r="R57" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
+        <v>22</v>
+      </c>
+      <c r="S57" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T57" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="U57" s="19"/>
-      <c r="V57" s="20"/>
+      <c r="V57" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="W57" s="19" t="s">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="X57" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y57" s="19"/>
+        <v>206</v>
+      </c>
+      <c r="Y57" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="Z57" s="19"/>
       <c r="AA57" s="20" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="AB57" s="20" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="14.65">
       <c r="A58" s="18" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
+      <c r="D58" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="E58" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F58" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="J58" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="19"/>
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
-      <c r="N58" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N58" s="20"/>
       <c r="O58" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="P58" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="P58" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="Q58" s="19"/>
       <c r="R58" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="S58" s="19" t="s">
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="S58" s="19"/>
       <c r="T58" s="19"/>
-      <c r="U58" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="V58" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="U58" s="19"/>
+      <c r="V58" s="20"/>
       <c r="W58" s="19" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="X58" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y58" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="Y58" s="19"/>
       <c r="Z58" s="19"/>
       <c r="AA58" s="20" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="AB58" s="20" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="14.65">
       <c r="A59" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="B59" s="19"/>
+        <v>210</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="19" t="s">
-        <v>48</v>
-      </c>
+      <c r="E59" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
-      <c r="J59" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="J59" s="20"/>
       <c r="K59" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L59" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L59" s="19"/>
       <c r="M59" s="19"/>
       <c r="N59" s="20" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P59" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="P59" s="19"/>
       <c r="Q59" s="19"/>
       <c r="R59" s="20" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="S59" s="19" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
+      <c r="U59" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="V59" s="20" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="W59" s="19" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="X59" s="19" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="Y59" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z59" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="Z59" s="19"/>
       <c r="AA59" s="20" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="AB59" s="20" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="14.65">
       <c r="A60" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B60" s="19"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="E60" s="20"/>
       <c r="F60" s="19" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K60" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="M60" s="19"/>
       <c r="N60" s="20" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="O60" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="P60" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="P60" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="Q60" s="19"/>
       <c r="R60" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="S60" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="S60" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="T60" s="19"/>
       <c r="U60" s="19"/>
-      <c r="V60" s="20"/>
+      <c r="V60" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="W60" s="19" t="s">
-        <v>222</v>
+        <v>64</v>
       </c>
       <c r="X60" s="19" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="Y60" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z60" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="Z60" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="AA60" s="20" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="AB60" s="20" t="s">
-        <v>144</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="14.65">
       <c r="A61" s="18" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C61" s="19"/>
       <c r="D61" s="19"/>
       <c r="E61" s="20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G61" s="19"/>
-      <c r="H61" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="K61" s="19" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
       <c r="N61" s="20" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="O61" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P61" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="P61" s="19"/>
       <c r="Q61" s="19"/>
       <c r="R61" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="S61" s="19" t="s">
-        <v>88</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="S61" s="19"/>
       <c r="T61" s="19"/>
       <c r="U61" s="19"/>
-      <c r="V61" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="V61" s="20"/>
       <c r="W61" s="19" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="X61" s="19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y61" s="19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z61" s="19"/>
       <c r="AA61" s="20" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="AB61" s="20" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="14.65">
       <c r="A62" s="18" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="20" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="I62" s="19"/>
       <c r="J62" s="20" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L62" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L62" s="19"/>
       <c r="M62" s="19"/>
       <c r="N62" s="20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O62" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P62" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="P62" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="Q62" s="19"/>
       <c r="R62" s="20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="S62" s="19" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="T62" s="19"/>
       <c r="U62" s="19"/>
       <c r="V62" s="20" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="W62" s="19" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="X62" s="19" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="Y62" s="19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Z62" s="19"/>
       <c r="AA62" s="20" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AB62" s="20" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:28" ht="14.65">
       <c r="A63" s="18" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
       <c r="E63" s="20" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63" s="19"/>
+        <v>90</v>
+      </c>
+      <c r="L63" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="M63" s="19"/>
       <c r="N63" s="20" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="O63" s="19" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="P63" s="19"/>
       <c r="Q63" s="19"/>
       <c r="R63" s="20" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="S63" s="19" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="T63" s="19"/>
       <c r="U63" s="19"/>
       <c r="V63" s="20" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="W63" s="19" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="X63" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="Y63" s="19" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Z63" s="19"/>
       <c r="AA63" s="20" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="AB63" s="20" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:28" ht="14.65">
       <c r="A64" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="B64" s="19"/>
+        <v>224</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
+      <c r="E64" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="19"/>
+      <c r="J64" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="L64" s="19"/>
       <c r="M64" s="19"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="19"/>
+      <c r="N64" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O64" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="P64" s="19"/>
       <c r="Q64" s="19"/>
-      <c r="R64" s="20"/>
+      <c r="R64" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="S64" s="19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="T64" s="19"/>
       <c r="U64" s="19"/>
       <c r="V64" s="20" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="W64" s="19" t="s">
-        <v>120</v>
+        <v>225</v>
       </c>
       <c r="X64" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y64" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="Y64" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="Z64" s="19"/>
       <c r="AA64" s="20" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="AB64" s="20" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="14.65">
       <c r="A65" s="18" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="20"/>
-      <c r="F65" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
-      <c r="J65" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="J65" s="20"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
       <c r="M65" s="19"/>
-      <c r="N65" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="N65" s="20"/>
       <c r="O65" s="19"/>
       <c r="P65" s="19"/>
       <c r="Q65" s="19"/>
       <c r="R65" s="20"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="S65" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="T65" s="19"/>
       <c r="U65" s="19"/>
       <c r="V65" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W65" s="19" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="X65" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y65" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
       <c r="AA65" s="20" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="AB65" s="20" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="14.65">
       <c r="A66" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="E66" s="20"/>
       <c r="F66" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="G66" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M66" s="19"/>
       <c r="N66" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="O66" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="P66" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
       <c r="Q66" s="19"/>
-      <c r="R66" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="S66" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="T66" s="19"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="U66" s="19"/>
       <c r="V66" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="W66" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="W66" s="19" t="s">
-        <v>236</v>
-      </c>
       <c r="X66" s="19" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="Y66" s="19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Z66" s="19"/>
       <c r="AA66" s="20" t="s">
-        <v>237</v>
+        <v>34</v>
       </c>
       <c r="AB66" s="20" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="14.65">
       <c r="A67" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
+        <v>228</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="19"/>
+      <c r="E67" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
+      <c r="J67" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="M67" s="19"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
+      <c r="N67" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P67" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="Q67" s="19"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="19"/>
+      <c r="R67" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="S67" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="T67" s="19"/>
       <c r="U67" s="19"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="19"/>
+      <c r="V67" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="W67" s="19" t="s">
+        <v>229</v>
+      </c>
       <c r="X67" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y67" s="19"/>
+        <v>115</v>
+      </c>
+      <c r="Y67" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="Z67" s="19"/>
       <c r="AA67" s="20" t="s">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="AB67" s="20" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="14.65">
       <c r="A68" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>21</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="E68" s="20"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
-      <c r="K68" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="K68" s="19"/>
       <c r="L68" s="19"/>
       <c r="M68" s="19"/>
-      <c r="N68" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="O68" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="N68" s="20"/>
+      <c r="O68" s="19"/>
       <c r="P68" s="19"/>
       <c r="Q68" s="19"/>
-      <c r="R68" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="R68" s="20"/>
       <c r="S68" s="19"/>
       <c r="T68" s="19"/>
       <c r="U68" s="19"/>
       <c r="V68" s="20"/>
-      <c r="W68" s="19" t="s">
-        <v>130</v>
-      </c>
+      <c r="W68" s="19"/>
       <c r="X68" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y68" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
       <c r="AA68" s="20" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="AB68" s="20" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="14.65">
       <c r="A69" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="B69" s="19"/>
+        <v>233</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
+      <c r="E69" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
-      <c r="K69" s="19"/>
+      <c r="K69" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="19"/>
+      <c r="N69" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="P69" s="19"/>
       <c r="Q69" s="19"/>
-      <c r="R69" s="20"/>
+      <c r="R69" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="S69" s="19"/>
       <c r="T69" s="19"/>
       <c r="U69" s="19"/>
       <c r="V69" s="20"/>
       <c r="W69" s="19" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="X69" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y69" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="Y69" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="Z69" s="19"/>
       <c r="AA69" s="20" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="AB69" s="20" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="14.65">
       <c r="A70" s="18" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -5104,101 +5084,141 @@
       <c r="T70" s="19"/>
       <c r="U70" s="19"/>
       <c r="V70" s="20"/>
-      <c r="W70" s="19"/>
-      <c r="X70" s="19"/>
+      <c r="W70" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="X70" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
-      <c r="AA70" s="20"/>
-      <c r="AB70" s="20"/>
+      <c r="AA70" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB70" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="71" spans="1:28" ht="14.65">
       <c r="A71" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="19"/>
+      <c r="U71" s="19"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
+    </row>
+    <row r="72" spans="1:28" ht="14.65">
+      <c r="A72" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B72" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J72" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="L72" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="M72" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N72" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C71" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="20" t="s">
+      <c r="O72" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="P72" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="G71" s="20" t="s">
+      <c r="Q72" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="R72" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="H71" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I71" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J71" s="20" t="s">
+      <c r="S72" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="K71" s="20" t="s">
+      <c r="T72" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="L71" s="20" t="s">
+      <c r="U72" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="V72" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="M71" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N71" s="20" t="s">
+      <c r="W72" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="O71" s="20" t="s">
+      <c r="X72" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="P71" s="20" t="s">
+      <c r="Y72" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="Q71" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R71" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="S71" s="20" t="s">
+      <c r="Z72" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA72" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="T71" s="20" t="s">
+      <c r="AB72" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="U71" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="V71" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="W71" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="X71" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="Y71" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z71" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA71" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB71" s="20" t="s">
-        <v>260</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:J3"/>
@@ -5206,8 +5226,7 @@
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="B5:AB5"/>
+    <mergeCell ref="B4:AB4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
